--- a/data/supervision_esp_S.xlsx
+++ b/data/supervision_esp_S.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8F3A10-9009-4059-8060-8592AF84123B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FDD543-47B1-4797-953B-9E83DF6DF1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>why</t>
   </si>
   <si>
-    <t>PhD in Neuroscience</t>
-  </si>
-  <si>
     <t>2013 - 2014</t>
   </si>
   <si>
@@ -49,34 +46,37 @@
     <t>Professional Doctorate in Counselling Psychology</t>
   </si>
   <si>
-    <t>Psychological Research Methods (Evolutionary Psychology) MSc</t>
+    <t>\href{https://www.researchgate.net/profile/Francisco-Flores-14}{Francisco Javier Flores}</t>
+  </si>
+  <si>
+    <t>\href{https://www.uel.ac.uk/}{University of East London}, Reino Unido</t>
+  </si>
+  <si>
+    <t>\href{https://www.stir.ac.uk/}{University of Stirling}, Reino Unido</t>
+  </si>
+  <si>
+    <t>\href{https://www.uv.es/}{Universitat de València}, España</t>
+  </si>
+  <si>
+    <t>Supervisión conjunta con \href{https://www.scraigroberts.com/}{S Craig Roberts}</t>
+  </si>
+  <si>
+    <t>Supervisión conjunta con Lisa Chiara Fellin</t>
+  </si>
+  <si>
+    <t>Supervisión conjunta con  Alicia Salvador</t>
+  </si>
+  <si>
+    <t>\href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita}</t>
+  </si>
+  <si>
+    <t>PhD in Neuroscience  - \textbf{\textit{Summa Cum Laude}}</t>
   </si>
   <si>
     <t>Julia Sanz-Vidania</t>
   </si>
   <si>
-    <t>\href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita}</t>
-  </si>
-  <si>
-    <t>\href{https://www.researchgate.net/profile/Francisco-Flores-14}{Francisco Javier Flores}</t>
-  </si>
-  <si>
-    <t>\href{https://www.uel.ac.uk/}{University of East London}, Reino Unido</t>
-  </si>
-  <si>
-    <t>\href{https://www.stir.ac.uk/}{University of Stirling}, Reino Unido</t>
-  </si>
-  <si>
-    <t>\href{https://www.uv.es/}{Universitat de València}, España</t>
-  </si>
-  <si>
-    <t>Supervisión conjunta con \href{https://www.scraigroberts.com/}{S Craig Roberts}</t>
-  </si>
-  <si>
-    <t>Supervisión conjunta con Lisa Chiara Fellin</t>
-  </si>
-  <si>
-    <t>Supervisión conjunta con  Alicia Salvador</t>
+    <t>Psychological Research Methods (Evolutionary Psychology) MSc  - \textbf{\textit{Trabajo de grado meritorio}}</t>
   </si>
 </sst>
 </file>
@@ -932,7 +932,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,53 +963,53 @@
     </row>
     <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/supervision_esp_S.xlsx
+++ b/data/supervision_esp_S.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FDD543-47B1-4797-953B-9E83DF6DF1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BB271B-579E-4DEC-B995-E1D552625EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>what</t>
   </si>
@@ -37,9 +37,6 @@
     <t>why</t>
   </si>
   <si>
-    <t>2013 - 2014</t>
-  </si>
-  <si>
     <t>2015 - 2018</t>
   </si>
   <si>
@@ -49,18 +46,9 @@
     <t>\href{https://www.researchgate.net/profile/Francisco-Flores-14}{Francisco Javier Flores}</t>
   </si>
   <si>
-    <t>\href{https://www.uel.ac.uk/}{University of East London}, Reino Unido</t>
-  </si>
-  <si>
-    <t>\href{https://www.stir.ac.uk/}{University of Stirling}, Reino Unido</t>
-  </si>
-  <si>
     <t>\href{https://www.uv.es/}{Universitat de València}, España</t>
   </si>
   <si>
-    <t>Supervisión conjunta con \href{https://www.scraigroberts.com/}{S Craig Roberts}</t>
-  </si>
-  <si>
     <t>Supervisión conjunta con Lisa Chiara Fellin</t>
   </si>
   <si>
@@ -70,13 +58,16 @@
     <t>\href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita}</t>
   </si>
   <si>
-    <t>PhD in Neuroscience  - \textbf{\textit{Summa Cum Laude}}</t>
-  </si>
-  <si>
-    <t>Julia Sanz-Vidania</t>
-  </si>
-  <si>
-    <t>Psychological Research Methods (Evolutionary Psychology) MSc  - \textbf{\textit{Trabajo de grado meritorio}}</t>
+    <t>PhD in Neuroscience</t>
+  </si>
+  <si>
+    <t>Tésis \textbf{\textit{(Summa Cum Laude)}}: \textit{\href{http://hdl.handle.net/10550/67639}{Preferencias sexuales típicas y atípicas según sexo y edad de los estímulos: Utilidad de la técnica de rastreo ocular} [Typical and atypical sexual preferences according to sex and age of the stimuli: Usefulness of the eye tracking technique]}</t>
+  </si>
+  <si>
+    <t>\href{https://www.uel.ac.uk/}{U. of East London}, Reino Unido</t>
+  </si>
+  <si>
+    <t>Tésis: \textit{ What sense do people make of the functions of their ’behaviours that may be causing problems in their everyday life’? A hybrid deductive/inductive template analysis}</t>
   </si>
 </sst>
 </file>
@@ -566,12 +557,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -929,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,53 +951,45 @@
     </row>
     <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,7 +997,9 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1038,7 +1020,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1089,48 +1071,6 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/supervision_esp_S.xlsx
+++ b/data/supervision_esp_S.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BB271B-579E-4DEC-B995-E1D552625EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D41CBA-706F-4B3B-8458-EA9C0DFC5D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>what</t>
   </si>
@@ -49,25 +49,13 @@
     <t>\href{https://www.uv.es/}{Universitat de València}, España</t>
   </si>
   <si>
-    <t>Supervisión conjunta con Lisa Chiara Fellin</t>
-  </si>
-  <si>
-    <t>Supervisión conjunta con  Alicia Salvador</t>
-  </si>
-  <si>
     <t>\href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita}</t>
   </si>
   <si>
-    <t>PhD in Neuroscience</t>
-  </si>
-  <si>
-    <t>Tésis \textbf{\textit{(Summa Cum Laude)}}: \textit{\href{http://hdl.handle.net/10550/67639}{Preferencias sexuales típicas y atípicas según sexo y edad de los estímulos: Utilidad de la técnica de rastreo ocular} [Typical and atypical sexual preferences according to sex and age of the stimuli: Usefulness of the eye tracking technique]}</t>
-  </si>
-  <si>
     <t>\href{https://www.uel.ac.uk/}{U. of East London}, Reino Unido</t>
   </si>
   <si>
-    <t>Tésis: \textit{ What sense do people make of the functions of their ’behaviours that may be causing problems in their everyday life’? A hybrid deductive/inductive template analysis}</t>
+    <t>PhD in Neuroscience \textbf{\textit{(Summa Cum Laude)}}</t>
   </si>
 </sst>
 </file>
@@ -917,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,55 +939,47 @@
     </row>
     <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1064,13 +1044,6 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
